--- a/biology/Médecine/1179_en_santé_et_médecine/1179_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1179_en_santé_et_médecine/1179_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1179_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1179_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1179 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1179_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1179_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le roi de France Louis VII « est frappé d'un ictus avec hémiplégie droite ». Il mourra d'un second ictus l'année suivante 1180[1].
-Le concile du Latran fixe le statut des lépreux[2],[3],[4].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le roi de France Louis VII « est frappé d'un ictus avec hémiplégie droite ». Il mourra d'un second ictus l'année suivante 1180.
+Le concile du Latran fixe le statut des lépreux.</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1179_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1179_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Fondation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Une maison des lépreux est attestée à Nogent-le-Rotrou, dans le Perche[5].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Une maison des lépreux est attestée à Nogent-le-Rotrou, dans le Perche.</t>
         </is>
       </c>
     </row>
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1179_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1179_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,11 +588,13 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Fl. « Hudardus, médecin : témoin cité dans une charte de Henri, comte d'Eu, en faveur de l'abbaye de Saint-Michel du Tréport[6] » en Normandie.
-Fl. Jean N…, « mire » à Tours, paroisse Saint-Pierre le Puellier[7].
-Fl. W., médecin, chanoine de Marseille[7].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fl. « Hudardus, médecin : témoin cité dans une charte de Henri, comte d'Eu, en faveur de l'abbaye de Saint-Michel du Tréport » en Normandie.
+Fl. Jean N…, « mire » à Tours, paroisse Saint-Pierre le Puellier.
+Fl. W., médecin, chanoine de Marseille.</t>
         </is>
       </c>
     </row>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1179_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1179_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,9 +622,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">17 septembre : Hildegarde de Bingen (née en 1098), abbesse bénédictine, auteure d'au moins deux traités de médecine ou sciences naturelles, connus sous les titres de Causae et curae et de Physica[8],[9].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">17 septembre : Hildegarde de Bingen (née en 1098), abbesse bénédictine, auteure d'au moins deux traités de médecine ou sciences naturelles, connus sous les titres de Causae et curae et de Physica,.
 </t>
         </is>
       </c>
